--- a/biology/Botanique/Trichophorum_clintonii/Trichophorum_clintonii.xlsx
+++ b/biology/Botanique/Trichophorum_clintonii/Trichophorum_clintonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scirpe de Clinton
 Trichophorum clintonii, appelée la scirpe de Clinton, est une espèce d'angiospermes de la famille des laîches. On peut la retrouver au Canada et au nord des États-Unis.
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut la retrouver dans les provinces du Québec, de l'Alberta, du Saskatchewan, de l'Ontario et du Nouveau-Brunswick, tandis qu'elle se trouve dans les États de New York, du Maine, du Minnesota, du Wisconsin et du Michigan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut la retrouver dans les provinces du Québec, de l'Alberta, du Saskatchewan, de l'Ontario et du Nouveau-Brunswick, tandis qu'elle se trouve dans les États de New York, du Maine, du Minnesota, du Wisconsin et du Michigan.
 </t>
         </is>
       </c>
